--- a/Documentation/ProductBacklog.xlsx
+++ b/Documentation/ProductBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pace\Fall-2018\CS-692-Project-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinnari/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9742DF-BD87-764E-B317-AF883E65B5E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Product Backlog" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -156,13 +157,157 @@
   </si>
   <si>
     <t>Code function for chatbot to fetch and provide user requested content</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Sprints worked on</t>
+  </si>
+  <si>
+    <t>Sprint completed in</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>User login</t>
+  </si>
+  <si>
+    <t>User authentication</t>
+  </si>
+  <si>
+    <t>User sign up</t>
+  </si>
+  <si>
+    <t>Forget password</t>
+  </si>
+  <si>
+    <t>Invalid password request</t>
+  </si>
+  <si>
+    <t>News details</t>
+  </si>
+  <si>
+    <t>News details on landing page</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>Chatbot UI appearance on all pages</t>
+  </si>
+  <si>
+    <t>Chatbot basic conversation</t>
+  </si>
+  <si>
+    <t>Chatbot replying for a search keyword</t>
+  </si>
+  <si>
+    <t>Sprint 1,Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Interactive UI Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be easily able to traverse through the pages </t>
+  </si>
+  <si>
+    <t>User should able to login with correct credetials</t>
+  </si>
+  <si>
+    <t>User should not be able to login with invalid credentials</t>
+  </si>
+  <si>
+    <t>user should be able to sign up after entering the details</t>
+  </si>
+  <si>
+    <t>Database status</t>
+  </si>
+  <si>
+    <t>New user should be visible after a new sign up</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 3, Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>User should be able to reset password from forget password link</t>
+  </si>
+  <si>
+    <t>User should not be able to move forward if the email id is not found in the database</t>
+  </si>
+  <si>
+    <t>User should be able to sign out and the sessio should be cleared</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Deploying of the web application</t>
+  </si>
+  <si>
+    <t>Deploying of the chatbot backend</t>
+  </si>
+  <si>
+    <t>Sprint 2, Sprint 3</t>
+  </si>
+  <si>
+    <t>Categorised news display after login only</t>
+  </si>
+  <si>
+    <t>Top trending news should be visible to all the user without even log in</t>
+  </si>
+  <si>
+    <t>Top trending news should be visible to all the user after log in as well</t>
+  </si>
+  <si>
+    <t>Once user is logged in he should be able to see the news category tab</t>
+  </si>
+  <si>
+    <t>The chatbot pop up should appear on all the pages</t>
+  </si>
+  <si>
+    <t>Chatbot should ne able to reply to greeting messages</t>
+  </si>
+  <si>
+    <t>Display the news related to the search keyword typed in the chatbot</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Deploying the web application on heroku server</t>
+  </si>
+  <si>
+    <t>Deploying the chatbot backend to heroku server</t>
+  </si>
+  <si>
+    <t>News preference</t>
+  </si>
+  <si>
+    <t>User should be able choose News preferences &amp; topics of interest and save those preferences</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -172,18 +317,39 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -212,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -392,45 +558,6 @@
         <color indexed="10"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,13 +852,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -801,70 +976,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -882,17 +1060,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2050,55 +2255,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV36"/>
+  <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.15" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+    <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="19" t="s">
         <v>2</v>
@@ -2110,7 +2315,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1">
+    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="18" t="s">
         <v>3</v>
@@ -2122,7 +2327,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="18" t="s">
         <v>4</v>
@@ -2134,7 +2339,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="31.5" customHeight="1">
+    <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="18" t="s">
         <v>5</v>
@@ -2146,17 +2351,17 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="23.1" customHeight="1">
+    <row r="7" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="23.1" customHeight="1">
+    <row r="8" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="18" t="s">
         <v>7</v>
@@ -2168,7 +2373,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="38.1" customHeight="1">
+    <row r="9" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="18" t="s">
         <v>8</v>
@@ -2180,7 +2385,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="23.1" customHeight="1">
+    <row r="10" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="18" t="s">
         <v>9</v>
@@ -2192,7 +2397,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="23.1" customHeight="1">
+    <row r="11" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
@@ -2200,7 +2405,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="23.1" customHeight="1">
+    <row r="12" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
@@ -2208,7 +2413,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -2216,7 +2421,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="23.1" customHeight="1">
+    <row r="14" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" customHeight="1">
+    <row r="15" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2459,7 @@
       </c>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1">
+    <row r="16" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="122.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:6" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +2499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="44.25" customHeight="1">
+    <row r="18" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.25" customHeight="1">
+    <row r="19" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
+    <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>16</v>
       </c>
@@ -2352,7 +2557,7 @@
       </c>
       <c r="F20" s="40"/>
     </row>
-    <row r="21" spans="1:6" ht="31.5" customHeight="1">
+    <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
         <v>16</v>
       </c>
@@ -2365,14 +2570,14 @@
       <c r="D21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="41" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36.75" customHeight="1">
+    <row r="22" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>16</v>
       </c>
@@ -2392,7 +2597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="36.75" customHeight="1">
+    <row r="23" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>16</v>
       </c>
@@ -2412,7 +2617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="69.75" customHeight="1">
+    <row r="24" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>16</v>
       </c>
@@ -2432,117 +2637,388 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="43">
         <v>3</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="43"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" ht="23.1" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="58"/>
+      <c r="B30" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="58"/>
+      <c r="B34" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="58"/>
+      <c r="B35" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="58"/>
+      <c r="B38" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="58"/>
+      <c r="B39" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="58"/>
+      <c r="B40" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="58"/>
+      <c r="B41" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="58"/>
+      <c r="B42" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="58"/>
+      <c r="B43" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="58"/>
+      <c r="B44" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="58"/>
+      <c r="B45" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="58"/>
+      <c r="B46" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
